--- a/data/environmental/daily_measurements/daily_pH_temp_flow.xlsx
+++ b/data/environmental/daily_measurements/daily_pH_temp_flow.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arianasnowhuffmyer/MyProjects/E5/apulchra_metabolism/data/environmental/daily_measurements/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43A34C11-CA7D-2745-8D72-CF2D8652144D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EDB3F79-CFB0-9C4B-8355-DB6659BF9B39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16500" xr2:uid="{873D679D-533A-6F4D-B4A2-29DC51207C23}"/>
   </bookViews>
@@ -51,13 +51,13 @@
     <t>pH.mV</t>
   </si>
   <si>
-    <t>salinity.ppt</t>
-  </si>
-  <si>
     <t>flow.mL.10s</t>
   </si>
   <si>
     <t>notes</t>
+  </si>
+  <si>
+    <t>conductivity.psu</t>
   </si>
 </sst>
 </file>
@@ -419,7 +419,7 @@
   <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -441,13 +441,13 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/data/environmental/daily_measurements/daily_pH_temp_flow.xlsx
+++ b/data/environmental/daily_measurements/daily_pH_temp_flow.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arianasnowhuffmyer/MyProjects/E5/apulchra_metabolism/data/environmental/daily_measurements/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EDB3F79-CFB0-9C4B-8355-DB6659BF9B39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF826FC2-4E31-A348-95A8-96E6AF282988}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16500" xr2:uid="{873D679D-533A-6F4D-B4A2-29DC51207C23}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>temp.C</t>
   </si>
@@ -51,13 +51,19 @@
     <t>pH.mV</t>
   </si>
   <si>
-    <t>flow.mL.10s</t>
-  </si>
-  <si>
     <t>notes</t>
   </si>
   <si>
     <t>conductivity.psu</t>
+  </si>
+  <si>
+    <t>flow.mL.5s.initial</t>
+  </si>
+  <si>
+    <t>flow.mL.5s.final</t>
+  </si>
+  <si>
+    <t>flow initial is before adjustment, final is after adjustment</t>
   </si>
 </sst>
 </file>
@@ -416,15 +422,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2812896-27E0-934E-A3CC-40B13C09CA4B}">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -441,13 +447,175 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>20220929</v>
+      </c>
+      <c r="B2">
+        <v>1211</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>27.62</v>
+      </c>
+      <c r="E2">
+        <v>-56</v>
+      </c>
+      <c r="F2">
+        <v>37.97</v>
+      </c>
+      <c r="G2">
+        <v>350</v>
+      </c>
+      <c r="H2">
+        <v>325</v>
+      </c>
+      <c r="I2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>20220929</v>
+      </c>
+      <c r="B3">
+        <v>1214</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>27.6</v>
+      </c>
+      <c r="E3">
+        <v>-56.6</v>
+      </c>
+      <c r="F3">
+        <v>38.01</v>
+      </c>
+      <c r="G3">
+        <v>450</v>
+      </c>
+      <c r="H3">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>20220929</v>
+      </c>
+      <c r="B4">
+        <v>1215</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>27.69</v>
+      </c>
+      <c r="E4">
+        <v>-5.7</v>
+      </c>
+      <c r="F4">
+        <v>38</v>
+      </c>
+      <c r="G4">
+        <v>275</v>
+      </c>
+      <c r="H4">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>20220929</v>
+      </c>
+      <c r="B5">
+        <v>1216</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>27.68</v>
+      </c>
+      <c r="E5">
+        <v>-56.9</v>
+      </c>
+      <c r="F5">
+        <v>38</v>
+      </c>
+      <c r="G5">
+        <v>325</v>
+      </c>
+      <c r="H5">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>20220929</v>
+      </c>
+      <c r="B6">
+        <v>1217</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <v>27.65</v>
+      </c>
+      <c r="E6">
+        <v>-57.3</v>
+      </c>
+      <c r="F6">
+        <v>38.01</v>
+      </c>
+      <c r="G6">
+        <v>375</v>
+      </c>
+      <c r="H6">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>20220929</v>
+      </c>
+      <c r="B7">
+        <v>1218</v>
+      </c>
+      <c r="C7">
         <v>6</v>
+      </c>
+      <c r="D7">
+        <v>27.62</v>
+      </c>
+      <c r="E7">
+        <v>-57.2</v>
+      </c>
+      <c r="F7">
+        <v>38.01</v>
+      </c>
+      <c r="G7">
+        <v>350</v>
+      </c>
+      <c r="H7">
+        <v>350</v>
       </c>
     </row>
   </sheetData>

--- a/data/environmental/daily_measurements/daily_pH_temp_flow.xlsx
+++ b/data/environmental/daily_measurements/daily_pH_temp_flow.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arianasnowhuffmyer/MyProjects/E5/apulchra_metabolism/data/environmental/daily_measurements/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF826FC2-4E31-A348-95A8-96E6AF282988}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{479E47AF-177B-2942-98C1-C6DD50C57655}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16500" xr2:uid="{873D679D-533A-6F4D-B4A2-29DC51207C23}"/>
   </bookViews>
@@ -422,10 +422,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2812896-27E0-934E-A3CC-40B13C09CA4B}">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -618,6 +618,162 @@
         <v>350</v>
       </c>
     </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>20220930</v>
+      </c>
+      <c r="B8">
+        <v>1004</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>27.49</v>
+      </c>
+      <c r="E8">
+        <v>-56.8</v>
+      </c>
+      <c r="F8">
+        <v>38.020000000000003</v>
+      </c>
+      <c r="G8">
+        <v>375</v>
+      </c>
+      <c r="H8">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>20220930</v>
+      </c>
+      <c r="B9">
+        <v>1006</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <v>27.49</v>
+      </c>
+      <c r="E9">
+        <v>-56.6</v>
+      </c>
+      <c r="F9">
+        <v>38.03</v>
+      </c>
+      <c r="G9">
+        <v>450</v>
+      </c>
+      <c r="H9">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>20220930</v>
+      </c>
+      <c r="B10">
+        <v>1008</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10">
+        <v>27.55</v>
+      </c>
+      <c r="E10">
+        <v>-56.8</v>
+      </c>
+      <c r="F10">
+        <v>38.020000000000003</v>
+      </c>
+      <c r="G10">
+        <v>375</v>
+      </c>
+      <c r="H10">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>20220930</v>
+      </c>
+      <c r="B11">
+        <v>1009</v>
+      </c>
+      <c r="C11">
+        <v>4</v>
+      </c>
+      <c r="D11">
+        <v>27.54</v>
+      </c>
+      <c r="E11">
+        <v>-56.8</v>
+      </c>
+      <c r="F11">
+        <v>38.020000000000003</v>
+      </c>
+      <c r="G11">
+        <v>350</v>
+      </c>
+      <c r="H11">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>20220930</v>
+      </c>
+      <c r="B12">
+        <v>1010</v>
+      </c>
+      <c r="C12">
+        <v>5</v>
+      </c>
+      <c r="D12">
+        <v>27.52</v>
+      </c>
+      <c r="E12">
+        <v>-57</v>
+      </c>
+      <c r="F12">
+        <v>38.020000000000003</v>
+      </c>
+      <c r="G12">
+        <v>325</v>
+      </c>
+      <c r="H12">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>20220930</v>
+      </c>
+      <c r="B13">
+        <v>1011</v>
+      </c>
+      <c r="C13">
+        <v>6</v>
+      </c>
+      <c r="D13">
+        <v>27.5</v>
+      </c>
+      <c r="E13">
+        <v>-57</v>
+      </c>
+      <c r="F13">
+        <v>38.01</v>
+      </c>
+      <c r="G13">
+        <v>375</v>
+      </c>
+      <c r="H13">
+        <v>350</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
